--- a/OnlineExp2Analysis/2024_01+Yang_improved_BOA_image_rating_Real_January+28,+2024_22.04.xlsx
+++ b/OnlineExp2Analysis/2024_01+Yang_improved_BOA_image_rating_Real_January+28,+2024_22.04.xlsx
@@ -5,27 +5,28 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.dongdong/Downloads/DongHub/Github/CameraControl/OnlineExp2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.dongdong/Downloads/DongHub/Github/CameraControl/OnlineExp2Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA0514-C61E-FE41-94D4-C81AE84564CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B01884C-8E50-444F-A45B-301C9DAD6D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$LY$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
-    <pivotCache cacheId="14" r:id="rId6"/>
-    <pivotCache cacheId="19" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1892,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1914,9 +1915,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1925,13 +1923,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1972,6 +1964,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Facial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Expression Rating </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7116,7 +7138,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BE13A62-81C6-6549-BFF1-3F7104FFDBC4}" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BE13A62-81C6-6549-BFF1-3F7104FFDBC4}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -7208,7 +7230,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DAEA8A-71FD-0446-969A-823076A64149}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DAEA8A-71FD-0446-969A-823076A64149}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V18:W23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -7260,7 +7282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EEDC469-3413-714E-A35F-AC287C5F7130}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EEDC469-3413-714E-A35F-AC287C5F7130}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -7293,9 +7315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7333,7 +7355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7439,7 +7461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7581,7 +7603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51195,7 +51217,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>533</v>
       </c>
       <c r="B3" t="s">
@@ -51206,90 +51228,90 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7">
         <v>36</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="A8" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8">
         <v>36</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11">
         <v>40</v>
       </c>
     </row>
@@ -51302,8 +51324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C116D3-9E27-0643-8723-CA24E273B517}">
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView topLeftCell="V30" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51312,9 +51334,7 @@
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="21" max="21" width="13.5" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.33203125" customWidth="1"/>
-    <col min="25" max="27" width="13.33203125" style="25" customWidth="1"/>
-    <col min="28" max="38" width="13.33203125" customWidth="1"/>
+    <col min="23" max="38" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
@@ -51461,40 +51481,40 @@
       <c r="U2" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="17">
         <f>COUNTIF($D$2:$D$41,V2)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="17">
         <f>COUNTIF($E$2:$E$41,Z2)</f>
         <v>1</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AE2" s="17">
         <f>COUNTIF($F$2:$F$41,AD2)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AH2" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AI2" s="18">
+      <c r="AI2" s="17">
         <f>COUNTIF($G$2:$G$41,AH2)</f>
         <v>0</v>
       </c>
@@ -51558,40 +51578,40 @@
       <c r="U3" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="17">
         <f>COUNTIF($D$2:$D$41,V3)</f>
         <v>3</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="17">
         <f t="shared" ref="AA3:AA7" si="0">COUNTIF($E$2:$E$41,Z3)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="17">
         <f t="shared" ref="AE3:AE7" si="1">COUNTIF($F$2:$F$41,AD3)</f>
         <v>2</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="17">
         <f t="shared" ref="AI3:AI7" si="2">COUNTIF($G$2:$G$41,AH3)</f>
         <v>0</v>
       </c>
@@ -51655,40 +51675,40 @@
       <c r="U4" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="17">
         <f t="shared" ref="W4:W7" si="3">COUNTIF($D$2:$D$41,V4)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC4" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -51752,40 +51772,40 @@
       <c r="U5" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="V5" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="W5" s="18">
+      <c r="V5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W5" s="17">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="Y5" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="Z5" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA5" s="18">
+      <c r="Z5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA5" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="AC5" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="AD5" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="AD5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE5" s="17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AG5" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="AH5" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI5" s="18">
+      <c r="AH5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI5" s="17">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
@@ -51849,40 +51869,40 @@
       <c r="U6" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y6" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AG6" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AI6" s="18">
+      <c r="AI6" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -51943,43 +51963,43 @@
         <v>382</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="V7" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AC7" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AD7" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="AI7" s="20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -52041,9 +52061,6 @@
       </c>
       <c r="T8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
     </row>
     <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -52189,40 +52206,40 @@
       <c r="U10" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="17">
         <f>COUNTIF($H$2:$H$41,V10)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="Z10" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="17">
         <f>COUNTIF($I$2:$I$41,Z10)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="AD10" s="17" t="s">
+      <c r="AD10" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="17">
         <f>COUNTIF($F$2:$F$41,AD10)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="AH10" s="17" t="s">
+      <c r="AH10" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI10" s="17">
         <f>COUNTIF($G$2:$G$41,AH10)</f>
         <v>0</v>
       </c>
@@ -52286,40 +52303,40 @@
       <c r="U11" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="17">
         <f t="shared" ref="W11:W15" si="4">COUNTIF($H$2:$H$41,V11)</f>
         <v>1</v>
       </c>
       <c r="Y11" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA11" s="17">
         <f t="shared" ref="AA11:AA15" si="5">COUNTIF($I$2:$I$41,Z11)</f>
         <v>3</v>
       </c>
       <c r="AC11" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="17">
         <f t="shared" ref="AE11:AE15" si="6">COUNTIF($F$2:$F$41,AD11)</f>
         <v>2</v>
       </c>
       <c r="AG11" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="AH11" s="17" t="s">
+      <c r="AH11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="17">
         <f t="shared" ref="AI11:AI15" si="7">COUNTIF($G$2:$G$41,AH11)</f>
         <v>0</v>
       </c>
@@ -52383,40 +52400,40 @@
       <c r="U12" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y12" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC12" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="AD12" s="17" t="s">
+      <c r="AD12" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG12" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="AH12" s="17" t="s">
+      <c r="AH12" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -52480,40 +52497,40 @@
       <c r="U13" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="V13" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="W13" s="18">
+      <c r="V13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W13" s="17">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="Y13" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="Z13" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA13" s="18">
+      <c r="Z13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA13" s="17">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AC13" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="AD13" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE13" s="18">
+      <c r="AD13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE13" s="17">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AG13" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="AH13" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI13" s="18">
+      <c r="AH13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI13" s="17">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
@@ -52577,40 +52594,40 @@
       <c r="U14" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="17">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Y14" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AA14" s="17">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AC14" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="AD14" s="17" t="s">
+      <c r="AD14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE14" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG14" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="AH14" s="17" t="s">
+      <c r="AH14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AI14" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -52671,43 +52688,43 @@
         <v>380</v>
       </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="19" t="s">
+      <c r="U15" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="V15" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Y15" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA15" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AC15" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="AD15" s="20" t="s">
+      <c r="AD15" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AE15" s="21">
+      <c r="AE15" s="20">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AG15" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="AH15" s="20" t="s">
+      <c r="AH15" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AI15" s="21">
+      <c r="AI15" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -52768,9 +52785,6 @@
         <v>382</v>
       </c>
       <c r="T16" s="2"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -52828,9 +52842,6 @@
         <v>380</v>
       </c>
       <c r="T17" s="2"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
     </row>
     <row r="18" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -52888,15 +52899,13 @@
         <v>381</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="V18" s="27" t="s">
+      <c r="V18" s="22" t="s">
         <v>533</v>
       </c>
       <c r="W18" t="s">
         <v>530</v>
       </c>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18" s="24"/>
+      <c r="AA18" s="21"/>
     </row>
     <row r="19" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -52954,15 +52963,13 @@
         <v>382</v>
       </c>
       <c r="T19" s="2"/>
-      <c r="V19" s="28" t="s">
+      <c r="V19" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19">
         <v>3</v>
       </c>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19" s="24"/>
+      <c r="AA19" s="21"/>
     </row>
     <row r="20" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -53020,15 +53027,15 @@
         <v>388</v>
       </c>
       <c r="T20" s="2"/>
-      <c r="V20" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="W20" s="26">
+      <c r="V20" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="W20">
         <v>36</v>
       </c>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="24"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="21"/>
     </row>
     <row r="21" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -53086,15 +53093,15 @@
         <v>382</v>
       </c>
       <c r="T21" s="2"/>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="W21" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="21"/>
     </row>
     <row r="22" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -53152,13 +53159,12 @@
         <v>381</v>
       </c>
       <c r="T22" s="2"/>
-      <c r="V22" s="28" t="s">
+      <c r="V22" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="W22" s="26"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="24"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="21"/>
     </row>
     <row r="23" spans="1:38" ht="23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -53216,15 +53222,15 @@
         <v>382</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="V23" s="28" t="s">
+      <c r="V23" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23">
         <v>40</v>
       </c>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="24"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="21"/>
     </row>
     <row r="24" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -53282,9 +53288,6 @@
         <v>382</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
     </row>
     <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -53450,7 +53453,7 @@
       <c r="U26" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="2" t="s">
         <v>380</v>
       </c>
       <c r="W26">
@@ -53577,7 +53580,7 @@
       <c r="U27" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="2" t="s">
         <v>388</v>
       </c>
       <c r="W27">
@@ -53704,7 +53707,7 @@
       <c r="U28" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="2" t="s">
         <v>382</v>
       </c>
       <c r="W28">
@@ -53831,7 +53834,7 @@
       <c r="U29" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="2" t="s">
         <v>379</v>
       </c>
       <c r="W29">
@@ -53958,7 +53961,7 @@
       <c r="U30" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="2" t="s">
         <v>447</v>
       </c>
       <c r="W30">
@@ -54082,10 +54085,10 @@
         <v>388</v>
       </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="19" t="s">
+      <c r="U31" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="V31" s="20" t="s">
+      <c r="V31" s="19" t="s">
         <v>381</v>
       </c>
       <c r="W31">
@@ -54774,415 +54777,415 @@
       </c>
     </row>
     <row r="59" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V59" s="17" t="s">
+      <c r="V59" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="W59" s="30">
+      <c r="W59" s="25">
         <f>COUNTIF(D$2:D$41,$V59)/40</f>
         <v>0</v>
       </c>
-      <c r="X59" s="30">
+      <c r="X59" s="25">
         <f t="shared" ref="X59:AL64" si="10">COUNTIF(E$2:E$41,$V59)/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y59" s="30">
+      <c r="Y59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="30">
+      <c r="Z59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA59" s="30">
+      <c r="AA59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB59" s="30">
+      <c r="AB59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC59" s="30">
+      <c r="AC59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD59" s="30">
+      <c r="AD59" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE59" s="30">
+      <c r="AE59" s="25">
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="AF59" s="30">
+      <c r="AF59" s="25">
         <f t="shared" si="10"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="AG59" s="30">
+      <c r="AG59" s="25">
         <f t="shared" si="10"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="AH59" s="30">
+      <c r="AH59" s="25">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="AI59" s="30">
+      <c r="AI59" s="25">
         <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
-      <c r="AJ59" s="30">
+      <c r="AJ59" s="25">
         <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
-      <c r="AK59" s="30">
+      <c r="AK59" s="25">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
-      <c r="AL59" s="30">
+      <c r="AL59" s="25">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V60" s="17" t="s">
+      <c r="V60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="W60" s="30">
+      <c r="W60" s="25">
         <f t="shared" ref="W60:W64" si="11">COUNTIF(D$2:D$41,$V60)/40</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X60" s="30">
+      <c r="X60" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="30">
+      <c r="Y60" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="Z60" s="30">
+      <c r="Z60" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="30">
+      <c r="AA60" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AB60" s="30">
+      <c r="AB60" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC60" s="30">
+      <c r="AC60" s="25">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="AD60" s="30">
+      <c r="AD60" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE60" s="30">
+      <c r="AE60" s="25">
         <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF60" s="30">
+      <c r="AF60" s="25">
         <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
-      <c r="AG60" s="30">
+      <c r="AG60" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AH60" s="30">
+      <c r="AH60" s="25">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="AI60" s="30">
+      <c r="AI60" s="25">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="AJ60" s="30">
+      <c r="AJ60" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AK60" s="30">
+      <c r="AK60" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AL60" s="30">
+      <c r="AL60" s="25">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V61" s="17" t="s">
+      <c r="V61" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="W61" s="30">
+      <c r="W61" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X61" s="30">
+      <c r="X61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="30">
+      <c r="Y61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z61" s="30">
+      <c r="Z61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA61" s="30">
+      <c r="AA61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB61" s="30">
+      <c r="AB61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC61" s="30">
+      <c r="AC61" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD61" s="30">
+      <c r="AD61" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE61" s="30">
+      <c r="AE61" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AF61" s="30">
+      <c r="AF61" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AG61" s="30">
+      <c r="AG61" s="25">
         <f t="shared" si="10"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="AH61" s="30">
+      <c r="AH61" s="25">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="AI61" s="30">
+      <c r="AI61" s="25">
         <f t="shared" si="10"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="AJ61" s="30">
+      <c r="AJ61" s="25">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="AK61" s="30">
+      <c r="AK61" s="25">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="AL61" s="30">
+      <c r="AL61" s="25">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="62" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V62" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="W62" s="30">
+      <c r="V62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W62" s="25">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="X62" s="30">
+      <c r="X62" s="25">
         <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
-      <c r="Y62" s="30">
+      <c r="Y62" s="25">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="Z62" s="30">
+      <c r="Z62" s="25">
         <f t="shared" si="10"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="AA62" s="30">
+      <c r="AA62" s="25">
         <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
-      <c r="AB62" s="30">
+      <c r="AB62" s="25">
         <f t="shared" si="10"/>
         <v>0.85</v>
       </c>
-      <c r="AC62" s="30">
+      <c r="AC62" s="25">
         <f t="shared" si="10"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="AD62" s="30">
+      <c r="AD62" s="25">
         <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
-      <c r="AE62" s="30">
+      <c r="AE62" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF62" s="30">
+      <c r="AF62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG62" s="30">
+      <c r="AG62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH62" s="30">
+      <c r="AH62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI62" s="30">
+      <c r="AI62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ62" s="30">
+      <c r="AJ62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK62" s="30">
+      <c r="AK62" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL62" s="30">
+      <c r="AL62" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V63" s="17" t="s">
+      <c r="V63" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="W63" s="30">
+      <c r="W63" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X63" s="30">
+      <c r="X63" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y63" s="30">
+      <c r="Y63" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z63" s="30">
+      <c r="Z63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA63" s="30">
+      <c r="AA63" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB63" s="30">
+      <c r="AB63" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AC63" s="30">
+      <c r="AC63" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD63" s="30">
+      <c r="AD63" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AE63" s="30">
+      <c r="AE63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF63" s="30">
+      <c r="AF63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG63" s="30">
+      <c r="AG63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH63" s="30">
+      <c r="AH63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI63" s="30">
+      <c r="AI63" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ63" s="30">
+      <c r="AJ63" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK63" s="30">
+      <c r="AK63" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL63" s="30">
+      <c r="AL63" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="22:38" ht="16" x14ac:dyDescent="0.2">
-      <c r="V64" s="20" t="s">
+      <c r="V64" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="W64" s="30">
+      <c r="W64" s="25">
         <f t="shared" si="11"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="X64" s="30">
+      <c r="X64" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y64" s="30">
+      <c r="Y64" s="25">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="Z64" s="30">
+      <c r="Z64" s="25">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="AA64" s="30">
+      <c r="AA64" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AB64" s="30">
+      <c r="AB64" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC64" s="30">
+      <c r="AC64" s="25">
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD64" s="30">
+      <c r="AD64" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AE64" s="30">
+      <c r="AE64" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AF64" s="30">
+      <c r="AF64" s="25">
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AG64" s="30">
+      <c r="AG64" s="25">
         <f t="shared" si="10"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AH64" s="30">
+      <c r="AH64" s="25">
         <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
-      <c r="AI64" s="30">
+      <c r="AI64" s="25">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AJ64" s="30">
+      <c r="AJ64" s="25">
         <f t="shared" si="10"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="AK64" s="30">
+      <c r="AK64" s="25">
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="AL64" s="30">
+      <c r="AL64" s="25">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
@@ -55195,6 +55198,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71B516-ADB4-1E49-B0AB-BD41B32EE17B}">
+  <dimension ref="G7:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f>50*49/2</f>
+        <v>1225</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f>50*50</f>
+        <v>2500</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <f>40*39/2+40*40</f>
+        <v>2380</v>
+      </c>
+      <c r="L8">
+        <f>10*9/2+10*10</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f>G8+G7</f>
+        <v>3725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152643A0-50F9-9642-B62B-F7A1482B3B50}">
   <dimension ref="A1:C18"/>
   <sheetViews>
